--- a/data/Property.xlsx
+++ b/data/Property.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +68,54 @@
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>One World Trade Center</t>
+  </si>
+  <si>
+    <t>/static/Images/Realty/OneWorldTradeCenter.jpg</t>
+  </si>
+  <si>
+    <t>1 World Financial Center - Sandy Hook, New York, NY 10007</t>
+  </si>
+  <si>
+    <t>One World Trade Center refers to the main building of the new World Trade Center complex in Lower Manhattan, New York City. It is the tallest skyscraper in the Western Hemisphere, and the fifth-tallest in the world.</t>
+  </si>
+  <si>
+    <t>Willis Tower</t>
+  </si>
+  <si>
+    <t>/static/Images/Realty/Sears_Tower.jpg</t>
+  </si>
+  <si>
+    <t>233 S Wacker Dr, Chicago, IL 60606</t>
+  </si>
+  <si>
+    <t>The Willis Tower, built as and still commonly referred to as Sears Tower, is a 108-story, 1,451-foot skyscraper in Chicago, Illinois, United States.</t>
+  </si>
+  <si>
+    <t>Bank of America Tower</t>
+  </si>
+  <si>
+    <t>The Bank of America Tower at One Bryant Park is a 1,200 ft skyscraper in the Midtown area of Manhattan in New York City, United States. It is located on Sixth Avenue, between 42nd and 43rd Streets, opposite Bryant Park.</t>
+  </si>
+  <si>
+    <t>/static/Images/Realty/Bank_of_America_Tower.jpg</t>
+  </si>
+  <si>
+    <t>Bank of America Tower, New York, NY 10036</t>
+  </si>
+  <si>
+    <t>Aon Center</t>
+  </si>
+  <si>
+    <t>/static/Images/Realty/Aon_Center.jpg</t>
+  </si>
+  <si>
+    <t>200 E Randolph St, Chicago, IL 60601</t>
+  </si>
+  <si>
+    <t>The Aon Center is a modern skyscraper in the Chicago Loop, Chicago, Illinois, United States, designed by architect firms Edward Durell Stone and The Perkins and Will partnership, and completed in 1974 as the Standard Oil Building.</t>
   </si>
 </sst>
 </file>
@@ -413,26 +460,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="1"/>
     <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="23.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -475,13 +522,13 @@
         <v>2158000</v>
       </c>
       <c r="F2" s="1">
-        <v>100000000</v>
+        <v>4500</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -498,9 +545,101 @@
         <v>856000</v>
       </c>
       <c r="F3" s="1">
-        <v>8500000</v>
+        <v>2400</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2114</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14000</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3455</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
